--- a/系统规划.xlsx
+++ b/系统规划.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D5BAE3-3D5A-48B5-896C-18FB448A3B4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="历史修订" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,13 +315,49 @@
   </si>
   <si>
     <t>题目详情展示;代码提交;代码运行与检测;代码提交结果反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://101.132.143.173/jenkins/(帐号：admin123 密码：admin123 最高权限，切记请勿泄露)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工具包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增Jenkins地址以及帐号密码;jdk和gradle版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
@@ -672,23 +707,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -724,23 +742,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -916,21 +917,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -950,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -970,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -990,17 +991,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>43437.441574074073</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1010,7 +1021,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1020,7 +1031,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1030,7 +1041,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1040,7 +1051,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1050,7 +1061,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1060,7 +1071,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1074,7 +1085,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11">
       <formula1>"C(创建),M(修改),D(删除),A(新增)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1084,22 +1095,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1117,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1138,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="20">
         <v>1</v>
@@ -1143,7 +1154,7 @@
       </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="20">
         <v>2</v>
@@ -1159,7 +1170,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="20">
         <v>3</v>
@@ -1175,7 +1186,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="20">
         <v>4</v>
@@ -1189,7 +1200,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
       <c r="B7" s="20">
         <v>5</v>
@@ -1198,10 +1209,14 @@
         <v>21</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
       <c r="B8" s="20">
         <v>6</v>
@@ -1217,27 +1232,39 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="20">
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -1247,7 +1274,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="20">
         <v>1</v>
@@ -1257,7 +1284,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="20">
         <v>2</v>
@@ -1267,7 +1294,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="20">
         <v>3</v>
@@ -1277,7 +1304,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="20">
         <v>4</v>
@@ -1287,7 +1314,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="20">
         <v>5</v>
@@ -1297,7 +1324,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="20">
         <v>6</v>
@@ -1307,7 +1334,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
       <c r="B18" s="20">
         <v>7</v>
@@ -1317,7 +1344,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="20">
         <v>8</v>
@@ -1330,29 +1357,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{3DE3DD6F-0E28-46DB-92D4-2265C680DF31}"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="2"/>
-    <col min="2" max="2" width="34.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="2" customWidth="1"/>
     <col min="3" max="5" width="17" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>44</v>
       </c>
@@ -1372,7 +1400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1390,7 +1418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1400,7 +1428,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1417,26 +1445,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="66.375" style="22" customWidth="1"/>
     <col min="3" max="3" width="12" style="14" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="22" customWidth="1"/>
-    <col min="9" max="10" width="13.6640625" style="22" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="43.75" style="22" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="22" customWidth="1"/>
+    <col min="9" max="10" width="13.625" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1486,7 +1514,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1504,7 +1532,7 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1522,7 +1550,7 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1540,7 +1568,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1558,7 +1586,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1576,7 +1604,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1594,7 +1622,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1612,7 +1640,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1630,7 +1658,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1648,7 +1676,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1666,7 +1694,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1684,7 +1712,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1702,7 +1730,7 @@
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1720,7 +1748,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1738,7 +1766,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1756,7 +1784,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1774,7 +1802,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1788,7 +1816,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1802,7 +1830,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1816,7 +1844,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>21</v>
       </c>
